--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1280795.956603992</v>
+        <v>1276848.489808227</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34047503.60545146</v>
+        <v>34036925.27449486</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6213376.151004031</v>
+        <v>6285583.054533836</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3804522.812457822</v>
+        <v>3794699.165857222</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>408.9806673703423</v>
       </c>
       <c r="D11" t="n">
-        <v>117.1451779959974</v>
+        <v>406.7703062592313</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>404.6566166752191</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>303.3850479415789</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>376.0265193250084</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>390.1706580684138</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F12" t="n">
-        <v>82.55</v>
+        <v>82.55000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>83.52738940623969</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
         <v>31.62322353306971</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>165.1200518137286</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>146.0557136835387</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>139.4388321524239</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>143.2800429937015</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>150.1596027797927</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>138.3133878655381</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>106.2402392964086</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>37.68395298004581</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>215.0443711375588</v>
       </c>
       <c r="U13" t="n">
-        <v>160.7335122538381</v>
+        <v>126.2997392925313</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>259.3055723302052</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>244.5257596515028</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>218.157456401853</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>200.3650932609642</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>397.2561940619901</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>406.5286157106511</v>
+        <v>404.6566166752191</v>
       </c>
       <c r="F14" t="n">
-        <v>400.6803736122476</v>
+        <v>146.1911590278758</v>
       </c>
       <c r="G14" t="n">
-        <v>217.9987693079384</v>
+        <v>370.727283689249</v>
       </c>
       <c r="H14" t="n">
-        <v>244.115954258892</v>
+        <v>242.24395522346</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.15332440471431</v>
+        <v>15.28132536928237</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>233.5716028810645</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>334.2103998474431</v>
       </c>
       <c r="W14" t="n">
-        <v>377.8985183604403</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>392.0426571038457</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>379.4228817452745</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>83.52738940623971</v>
+        <v>83.52738940623969</v>
       </c>
       <c r="H15" t="n">
         <v>31.62322353306971</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.9920508491606</v>
+        <v>165.1200518137286</v>
       </c>
       <c r="C16" t="n">
-        <v>147.9277127189706</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>141.3108311878559</v>
+        <v>42.7700078220796</v>
       </c>
       <c r="E16" t="n">
-        <v>145.1520420291334</v>
+        <v>143.2800429937015</v>
       </c>
       <c r="F16" t="n">
-        <v>152.0316018152247</v>
+        <v>150.1596027797927</v>
       </c>
       <c r="G16" t="n">
-        <v>137.1229451310971</v>
+        <v>138.3133878655381</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>106.2402392964086</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>37.68395298004581</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>118.2018923927392</v>
       </c>
       <c r="T16" t="n">
-        <v>216.9163701729908</v>
+        <v>215.0443711375588</v>
       </c>
       <c r="U16" t="n">
-        <v>252.6943839491077</v>
+        <v>250.8223849136758</v>
       </c>
       <c r="V16" t="n">
-        <v>261.1775713656372</v>
+        <v>259.3055723302052</v>
       </c>
       <c r="W16" t="n">
-        <v>246.3977586869347</v>
+        <v>244.5257596515028</v>
       </c>
       <c r="X16" t="n">
-        <v>220.029455437285</v>
+        <v>218.157456401853</v>
       </c>
       <c r="Y16" t="n">
-        <v>202.2370922963961</v>
+        <v>200.3650932609642</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>399.128193097422</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>410.8526664057742</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>408.6423052946632</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>53.91315869849026</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>398.8083745768157</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>370.727283689249</v>
       </c>
       <c r="H17" t="n">
-        <v>244.115954258892</v>
+        <v>242.24395522346</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>184.8731582975103</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>231.6996038456326</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>334.2103998474431</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>376.0265193250084</v>
       </c>
       <c r="X17" t="n">
-        <v>392.0426571038457</v>
+        <v>151.4005208346747</v>
       </c>
       <c r="Y17" t="n">
-        <v>381.2948807807064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>166.9920508491606</v>
+        <v>165.1200518137286</v>
       </c>
       <c r="C19" t="n">
-        <v>147.9277127189706</v>
+        <v>146.0557136835387</v>
       </c>
       <c r="D19" t="n">
-        <v>141.3108311878559</v>
+        <v>46.87389691833361</v>
       </c>
       <c r="E19" t="n">
-        <v>145.1520420291334</v>
+        <v>143.2800429937015</v>
       </c>
       <c r="F19" t="n">
-        <v>152.0316018152247</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>137.1229451310971</v>
+        <v>138.3133878655381</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>106.2402392964086</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>37.68395298004581</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>118.2018923927392</v>
       </c>
       <c r="T19" t="n">
-        <v>216.9163701729908</v>
+        <v>215.0443711375588</v>
       </c>
       <c r="U19" t="n">
-        <v>252.6943839491077</v>
+        <v>250.8223849136758</v>
       </c>
       <c r="V19" t="n">
-        <v>261.1775713656372</v>
+        <v>259.3055723302052</v>
       </c>
       <c r="W19" t="n">
-        <v>246.3977586869347</v>
+        <v>244.5257596515028</v>
       </c>
       <c r="X19" t="n">
-        <v>220.029455437285</v>
+        <v>218.157456401853</v>
       </c>
       <c r="Y19" t="n">
-        <v>202.2370922963961</v>
+        <v>200.3650932609642</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>410.8526664057742</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>221.6413200464835</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>406.5286157106511</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>400.6803736122476</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>372.5992827246809</v>
+        <v>370.727283689249</v>
       </c>
       <c r="H20" t="n">
-        <v>244.115954258892</v>
+        <v>242.2439552234601</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>233.5716028810645</v>
+        <v>231.6996038456326</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>299.6989137427555</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>376.0265193250084</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>390.1706580684138</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>379.4228817452745</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>166.9920508491606</v>
+        <v>165.1200518137286</v>
       </c>
       <c r="C22" t="n">
-        <v>147.9277127189706</v>
+        <v>146.0557136835387</v>
       </c>
       <c r="D22" t="n">
-        <v>141.3108311878559</v>
+        <v>139.4388321524239</v>
       </c>
       <c r="E22" t="n">
-        <v>145.1520420291334</v>
+        <v>143.2800429937015</v>
       </c>
       <c r="F22" t="n">
-        <v>152.0316018152247</v>
+        <v>150.1596027797927</v>
       </c>
       <c r="G22" t="n">
-        <v>140.1853869009701</v>
+        <v>39.51304212810955</v>
       </c>
       <c r="H22" t="n">
-        <v>108.1122383318406</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>15.14918715705037</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>120.0738914281712</v>
+        <v>118.2018923927392</v>
       </c>
       <c r="T22" t="n">
-        <v>216.9163701729908</v>
+        <v>215.0443711375588</v>
       </c>
       <c r="U22" t="n">
-        <v>252.6943839491077</v>
+        <v>250.8223849136758</v>
       </c>
       <c r="V22" t="n">
-        <v>261.1775713656372</v>
+        <v>259.3055723302052</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>244.5257596515028</v>
       </c>
       <c r="X22" t="n">
-        <v>220.029455437285</v>
+        <v>218.157456401853</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.2370922963961</v>
+        <v>200.3650932609642</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>393.3382937076871</v>
+        <v>67.15189504980339</v>
       </c>
       <c r="C23" t="n">
-        <v>405.0627670160393</v>
+        <v>408.9806673703423</v>
       </c>
       <c r="D23" t="n">
-        <v>402.8524059049283</v>
+        <v>406.7703062592313</v>
       </c>
       <c r="E23" t="n">
-        <v>400.7387163209161</v>
+        <v>404.6566166752191</v>
       </c>
       <c r="F23" t="n">
-        <v>394.8904742225127</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>54.78110359855285</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>238.326054869157</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>15.28132536928237</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>231.6996038456326</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>376.0265193250084</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>379.4228817452745</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.2021514594256</v>
+        <v>165.1200518137286</v>
       </c>
       <c r="C25" t="n">
-        <v>142.1378133292357</v>
+        <v>146.0557136835387</v>
       </c>
       <c r="D25" t="n">
-        <v>87.65329066663068</v>
+        <v>139.4388321524239</v>
       </c>
       <c r="E25" t="n">
-        <v>139.3621426393985</v>
+        <v>143.2800429937015</v>
       </c>
       <c r="F25" t="n">
-        <v>146.2417024254897</v>
+        <v>150.1596027797927</v>
       </c>
       <c r="G25" t="n">
-        <v>134.3954875112351</v>
+        <v>138.3133878655381</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>37.68395298004582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>114.2839920384362</v>
+        <v>118.2018923927392</v>
       </c>
       <c r="T25" t="n">
-        <v>211.1264707832558</v>
+        <v>215.0443711375588</v>
       </c>
       <c r="U25" t="n">
-        <v>246.9044845593728</v>
+        <v>250.8223849136758</v>
       </c>
       <c r="V25" t="n">
-        <v>255.3876719759022</v>
+        <v>259.3055723302052</v>
       </c>
       <c r="W25" t="n">
-        <v>240.6078592971998</v>
+        <v>244.5257596515028</v>
       </c>
       <c r="X25" t="n">
-        <v>214.23955604755</v>
+        <v>81.67315768437868</v>
       </c>
       <c r="Y25" t="n">
-        <v>196.4471929066612</v>
+        <v>200.3650932609642</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>402.8524059049283</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>394.8904742225127</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>267.7778004670496</v>
+        <v>185.6008941282107</v>
       </c>
       <c r="H26" t="n">
-        <v>238.326054869157</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>227.7817034913296</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>372.1086189707054</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>386.2527577141108</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.2021514594256</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>142.1378133292357</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>87.65329066663068</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>139.3621426393985</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>146.2417024254897</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>134.3954875112351</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>114.2839920384362</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>211.1264707832558</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>246.9044845593728</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>255.3876719759022</v>
+        <v>185.0832217507329</v>
       </c>
       <c r="W28" t="n">
-        <v>240.6078592971998</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>214.23955604755</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>196.4471929066612</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>416.2466753903237</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>427.971148698676</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>425.7607875875649</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>215.8330639131392</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>395.0170006533421</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>409.1611393967474</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>149.6157531058518</v>
       </c>
     </row>
     <row r="30">
@@ -2879,7 +2879,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E30" t="n">
-        <v>93.17921052631583</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F30" t="n">
         <v>82.55</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>184.1105331420623</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>165.0461950118724</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>144.1733189051525</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>157.3038691938718</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>137.1923737210729</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>234.0348524658925</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>269.8128662420095</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>278.2960536585389</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>263.5162409798364</v>
+        <v>187.5200416656042</v>
       </c>
       <c r="X31" t="n">
-        <v>237.1479377301867</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.3555745892978</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>427.971148698676</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>261.2344365517937</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.4629003126306</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.6900851739662</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.2008811757768</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>395.0170006533421</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>167.4490654225676</v>
       </c>
       <c r="Y32" t="n">
-        <v>398.4133630736081</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3164,7 +3164,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U33" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043577</v>
       </c>
       <c r="V33" t="n">
         <v>197.1263427586206</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>184.1105331420623</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>165.0461950118724</v>
+        <v>162.6883753242419</v>
       </c>
       <c r="D34" t="n">
-        <v>158.4293134807576</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>162.2705243220352</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>117.969724017304</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>234.0348524658925</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>269.8128662420095</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>278.2960536585389</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>263.5162409798364</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>237.1479377301867</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.3555745892978</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>416.2466753903237</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>425.7607875875649</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>389.7177650175826</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>250.6900851739666</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>409.1611393967474</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>398.4133630736081</v>
+        <v>361.9987888703319</v>
       </c>
     </row>
     <row r="36">
@@ -3356,7 +3356,7 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F36" t="n">
-        <v>82.55</v>
+        <v>82.55000000000001</v>
       </c>
       <c r="G36" t="n">
         <v>83.52738940623971</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>165.0461950118724</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>158.4293134807576</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>162.2705243220352</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>169.1500841081264</v>
+        <v>60.07073011995457</v>
       </c>
       <c r="G37" t="n">
-        <v>132.9301730512399</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>234.0348524658925</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>269.8128662420095</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>278.2960536585389</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>263.5162409798364</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>237.1479377301867</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.3555745892978</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>315.5301693740614</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>79.34771998574185</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>54.31661462074911</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>98.80284289991573</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>363.5509693851575</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>67.53350021222185</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,10 +3833,10 @@
         <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>83.52738940623971</v>
+        <v>83.52738940623969</v>
       </c>
       <c r="H42" t="n">
-        <v>31.6232235330697</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>60.07073011995457</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>7.722803593220153</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>176.963177619809</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>156.7012890994284</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517242</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
         <v>94.13938596491228</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4140,13 +4140,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>60.07073011995501</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1696.401431380284</v>
+        <v>1279.941491250766</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.401431380284</v>
+        <v>866.8297060281976</v>
       </c>
       <c r="D11" t="n">
-        <v>1578.072968758064</v>
+        <v>455.9506087966508</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5074,19 +5074,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U11" t="n">
-        <v>2101.256885969251</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V11" t="n">
-        <v>2101.256885969251</v>
+        <v>2053.878034072404</v>
       </c>
       <c r="W11" t="n">
-        <v>1696.401431380284</v>
+        <v>1674.053267077446</v>
       </c>
       <c r="X11" t="n">
-        <v>1696.401431380284</v>
+        <v>1279.941491250766</v>
       </c>
       <c r="Y11" t="n">
-        <v>1696.401431380284</v>
+        <v>1279.941491250766</v>
       </c>
     </row>
     <row r="12">
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,52 +5175,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.1113136517137</v>
+        <v>917.0770280655704</v>
       </c>
       <c r="C13" t="n">
-        <v>559.5496021349386</v>
+        <v>769.546004142804</v>
       </c>
       <c r="D13" t="n">
-        <v>393.6716093364613</v>
+        <v>628.6986989383354</v>
       </c>
       <c r="E13" t="n">
-        <v>223.9136055871985</v>
+        <v>483.9713827830814</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895473</v>
+        <v>332.2950163388463</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>192.5845235453734</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>85.27115051869797</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>217.2244773267156</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>338.5571548051617</v>
       </c>
       <c r="L13" t="n">
-        <v>828.1746199579902</v>
+        <v>486.9605333343476</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>1071.141608752662</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1369.561944281203</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>1931.529651765634</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2056.831284854205</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>2319.323907860081</v>
       </c>
       <c r="R13" t="n">
         <v>2360.327577447737</v>
@@ -5229,22 +5229,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>2143.111040945152</v>
       </c>
       <c r="U13" t="n">
-        <v>1955.723270266458</v>
+        <v>2015.535546710272</v>
       </c>
       <c r="V13" t="n">
-        <v>1668.767762136888</v>
+        <v>1753.610726174711</v>
       </c>
       <c r="W13" t="n">
-        <v>1396.74135772318</v>
+        <v>1506.615009355011</v>
       </c>
       <c r="X13" t="n">
-        <v>1151.349603056593</v>
+        <v>1286.253942282432</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.9299323707007</v>
+        <v>1083.864959190549</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1329.351716084035</v>
+        <v>1222.781313787141</v>
       </c>
       <c r="C14" t="n">
-        <v>1329.351716084035</v>
+        <v>1222.781313787141</v>
       </c>
       <c r="D14" t="n">
-        <v>1329.351716084035</v>
+        <v>1222.781313787141</v>
       </c>
       <c r="E14" t="n">
-        <v>918.7167507197407</v>
+        <v>814.0372565394445</v>
       </c>
       <c r="F14" t="n">
-        <v>513.9891006063592</v>
+        <v>666.3694191375497</v>
       </c>
       <c r="G14" t="n">
-        <v>293.7883235276335</v>
+        <v>291.8974154110356</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895473</v>
@@ -5284,16 +5284,16 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2343.000987139944</v>
+        <v>2344.891895256542</v>
       </c>
       <c r="T14" t="n">
-        <v>2343.000987139944</v>
+        <v>2344.891895256542</v>
       </c>
       <c r="U14" t="n">
-        <v>2107.070075138869</v>
+        <v>2344.891895256542</v>
       </c>
       <c r="V14" t="n">
-        <v>2107.070075138869</v>
+        <v>2007.305632784377</v>
       </c>
       <c r="W14" t="n">
-        <v>1725.354400027313</v>
+        <v>2007.305632784377</v>
       </c>
       <c r="X14" t="n">
-        <v>1329.351716084035</v>
+        <v>2007.305632784377</v>
       </c>
       <c r="Y14" t="n">
-        <v>1329.351716084035</v>
+        <v>1624.05019667804</v>
       </c>
     </row>
     <row r="15">
@@ -5363,10 +5363,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>778.060221127017</v>
+        <v>671.9007270414461</v>
       </c>
       <c r="C16" t="n">
-        <v>628.6382890876528</v>
+        <v>671.9007270414461</v>
       </c>
       <c r="D16" t="n">
-        <v>485.9000757665863</v>
+        <v>628.6986989383354</v>
       </c>
       <c r="E16" t="n">
-        <v>339.2818514947343</v>
+        <v>483.9713827830814</v>
       </c>
       <c r="F16" t="n">
-        <v>185.7145769339013</v>
+        <v>332.2950163388463</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895473</v>
+        <v>192.5845235453734</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895473</v>
+        <v>85.27115051869797</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>215.371198281638</v>
+        <v>130.6447921620258</v>
       </c>
       <c r="K16" t="n">
-        <v>609.6090512861421</v>
+        <v>526.7359242116074</v>
       </c>
       <c r="L16" t="n">
-        <v>1174.369032538211</v>
+        <v>675.1393027407934</v>
       </c>
       <c r="M16" t="n">
-        <v>1327.652722742551</v>
+        <v>1025.73599898266</v>
       </c>
       <c r="N16" t="n">
-        <v>1477.830932412251</v>
+        <v>1609.917074400975</v>
       </c>
       <c r="O16" t="n">
-        <v>1618.276111625823</v>
+        <v>1752.215532659624</v>
       </c>
       <c r="P16" t="n">
-        <v>2060.53784294436</v>
+        <v>2225.024059718538</v>
       </c>
       <c r="Q16" t="n">
-        <v>2321.177186905159</v>
+        <v>2319.323907860081</v>
       </c>
       <c r="R16" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2240.93172654598</v>
       </c>
       <c r="T16" t="n">
-        <v>2141.220132828554</v>
+        <v>2023.715190043395</v>
       </c>
       <c r="U16" t="n">
-        <v>1885.973280354708</v>
+        <v>1770.359245686147</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.157551702549</v>
+        <v>1508.434425150586</v>
       </c>
       <c r="W16" t="n">
-        <v>1373.270926766251</v>
+        <v>1261.438708330886</v>
       </c>
       <c r="X16" t="n">
-        <v>1151.018951577074</v>
+        <v>1041.077641258307</v>
       </c>
       <c r="Y16" t="n">
-        <v>946.7390603685934</v>
+        <v>838.6886581664245</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1176.018758274025</v>
+        <v>1069.206161134333</v>
       </c>
       <c r="C17" t="n">
-        <v>761.0160649348593</v>
+        <v>1069.206161134333</v>
       </c>
       <c r="D17" t="n">
-        <v>348.2460595867146</v>
+        <v>1069.206161134333</v>
       </c>
       <c r="E17" t="n">
-        <v>293.7883235276335</v>
+        <v>1069.206161134333</v>
       </c>
       <c r="F17" t="n">
-        <v>293.7883235276335</v>
+        <v>666.3694191375497</v>
       </c>
       <c r="G17" t="n">
-        <v>293.7883235276335</v>
+        <v>291.8974154110356</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895473</v>
@@ -5518,19 +5518,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5545,22 +5545,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2173.587013510858</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1939.54700962638</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1601.960747154215</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447737</v>
+        <v>1222.135980159257</v>
       </c>
       <c r="X17" t="n">
-        <v>1964.324893504458</v>
+        <v>1069.206161134333</v>
       </c>
       <c r="Y17" t="n">
-        <v>1579.178549281522</v>
+        <v>1069.206161134333</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030329</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280532</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>778.060221127017</v>
+        <v>671.9007270414461</v>
       </c>
       <c r="C19" t="n">
-        <v>628.6382890876528</v>
+        <v>524.3697031186797</v>
       </c>
       <c r="D19" t="n">
-        <v>485.9000757665863</v>
+        <v>477.0223324941003</v>
       </c>
       <c r="E19" t="n">
-        <v>339.2818514947343</v>
+        <v>332.2950163388463</v>
       </c>
       <c r="F19" t="n">
-        <v>185.7145769339013</v>
+        <v>332.2950163388463</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895473</v>
+        <v>192.5845235453734</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>85.27115051869797</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>215.371198281638</v>
+        <v>217.2244773267156</v>
       </c>
       <c r="K19" t="n">
-        <v>609.6090512861421</v>
+        <v>613.3156093762973</v>
       </c>
       <c r="L19" t="n">
-        <v>756.1591507702502</v>
+        <v>761.7189879054831</v>
       </c>
       <c r="M19" t="n">
-        <v>1298.959206047253</v>
+        <v>916.8559571549006</v>
       </c>
       <c r="N19" t="n">
-        <v>1449.137415716953</v>
+        <v>1068.887445869678</v>
       </c>
       <c r="O19" t="n">
-        <v>1589.582594930525</v>
+        <v>1584.022757795292</v>
       </c>
       <c r="P19" t="n">
-        <v>2060.53784294436</v>
+        <v>2056.831284854205</v>
       </c>
       <c r="Q19" t="n">
-        <v>2321.177186905159</v>
+        <v>2319.323907860081</v>
       </c>
       <c r="R19" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2240.93172654598</v>
       </c>
       <c r="T19" t="n">
-        <v>2141.220132828554</v>
+        <v>2023.715190043395</v>
       </c>
       <c r="U19" t="n">
-        <v>1885.973280354708</v>
+        <v>1770.359245686147</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.157551702549</v>
+        <v>1508.434425150586</v>
       </c>
       <c r="W19" t="n">
-        <v>1373.270926766251</v>
+        <v>1261.438708330886</v>
       </c>
       <c r="X19" t="n">
-        <v>1151.018951577074</v>
+        <v>1041.077641258307</v>
       </c>
       <c r="Y19" t="n">
-        <v>946.7390603685934</v>
+        <v>838.6886581664245</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2124.396665446661</v>
+        <v>666.3694191375497</v>
       </c>
       <c r="C20" t="n">
-        <v>1709.393972107495</v>
+        <v>666.3694191375497</v>
       </c>
       <c r="D20" t="n">
-        <v>1485.513850848421</v>
+        <v>666.3694191375497</v>
       </c>
       <c r="E20" t="n">
-        <v>1074.878885484127</v>
+        <v>666.3694191375497</v>
       </c>
       <c r="F20" t="n">
-        <v>670.1512353707456</v>
+        <v>666.3694191375497</v>
       </c>
       <c r="G20" t="n">
-        <v>293.7883235276335</v>
+        <v>291.8974154110356</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
         <v>1463.013992431967</v>
@@ -5785,19 +5785,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U20" t="n">
-        <v>2124.396665446661</v>
+        <v>2126.287573563259</v>
       </c>
       <c r="V20" t="n">
-        <v>2124.396665446661</v>
+        <v>1823.561398065526</v>
       </c>
       <c r="W20" t="n">
-        <v>2124.396665446661</v>
+        <v>1443.736631070568</v>
       </c>
       <c r="X20" t="n">
-        <v>2124.396665446661</v>
+        <v>1049.624855243888</v>
       </c>
       <c r="Y20" t="n">
-        <v>2124.396665446661</v>
+        <v>666.3694191375497</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5822,31 +5822,31 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>905.6600870449604</v>
+        <v>671.9007270414461</v>
       </c>
       <c r="C22" t="n">
-        <v>756.2381550055961</v>
+        <v>524.3697031186797</v>
       </c>
       <c r="D22" t="n">
-        <v>613.4999416845296</v>
+        <v>383.5223979142111</v>
       </c>
       <c r="E22" t="n">
-        <v>466.8817174126776</v>
+        <v>238.795081758957</v>
       </c>
       <c r="F22" t="n">
-        <v>313.3144428518447</v>
+        <v>87.11871531472195</v>
       </c>
       <c r="G22" t="n">
-        <v>171.7130419417739</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>62.50876079850056</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>215.371198281638</v>
+        <v>217.2244773267156</v>
       </c>
       <c r="K22" t="n">
-        <v>609.6090512861421</v>
+        <v>613.3156093762973</v>
       </c>
       <c r="L22" t="n">
-        <v>1174.369032538211</v>
+        <v>1179.928869673444</v>
       </c>
       <c r="M22" t="n">
-        <v>1327.652722742551</v>
+        <v>1335.065838922862</v>
       </c>
       <c r="N22" t="n">
-        <v>1477.830932412251</v>
+        <v>1487.097327637639</v>
       </c>
       <c r="O22" t="n">
-        <v>1618.276111625823</v>
+        <v>1629.395785896289</v>
       </c>
       <c r="P22" t="n">
-        <v>2060.53784294436</v>
+        <v>2056.831284854205</v>
       </c>
       <c r="Q22" t="n">
-        <v>2321.177186905159</v>
+        <v>2319.323907860081</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2239.040818429382</v>
+        <v>2240.93172654598</v>
       </c>
       <c r="T22" t="n">
-        <v>2019.933373810199</v>
+        <v>2023.715190043395</v>
       </c>
       <c r="U22" t="n">
-        <v>1764.686521336353</v>
+        <v>1770.359245686147</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.870792684194</v>
+        <v>1508.434425150586</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.870792684194</v>
+        <v>1261.438708330886</v>
       </c>
       <c r="X22" t="n">
-        <v>1278.618817495018</v>
+        <v>1041.077641258307</v>
       </c>
       <c r="Y22" t="n">
-        <v>1074.338926286537</v>
+        <v>838.6886581664245</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1963.016169662194</v>
+        <v>1279.941491250766</v>
       </c>
       <c r="C23" t="n">
-        <v>1553.861859544982</v>
+        <v>866.8297060281976</v>
       </c>
       <c r="D23" t="n">
-        <v>1146.940237418792</v>
+        <v>455.9506087966508</v>
       </c>
       <c r="E23" t="n">
-        <v>742.1536552764524</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F23" t="n">
-        <v>343.2743883850254</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G23" t="n">
-        <v>287.939940305679</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K23" t="n">
         <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867018</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
         <v>1131.588690455489</v>
@@ -6013,28 +6013,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447736</v>
+        <v>2344.891895256542</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447736</v>
+        <v>2344.891895256542</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447736</v>
+        <v>2110.851891372065</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447736</v>
+        <v>2110.851891372065</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447736</v>
+        <v>1731.027124377107</v>
       </c>
       <c r="X23" t="n">
-        <v>2360.327577447736</v>
+        <v>1731.027124377107</v>
       </c>
       <c r="Y23" t="n">
-        <v>2360.327577447736</v>
+        <v>1347.771688270769</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
         <v>341.0245550495863</v>
@@ -6059,10 +6059,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
         <v>81.42328772043084</v>
@@ -6074,7 +6074,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M24" t="n">
         <v>803.387703298788</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>703.5605278842979</v>
+        <v>809.763655038895</v>
       </c>
       <c r="C25" t="n">
-        <v>559.9869790668881</v>
+        <v>662.2326311161286</v>
       </c>
       <c r="D25" t="n">
-        <v>471.448301625847</v>
+        <v>521.3853259116599</v>
       </c>
       <c r="E25" t="n">
-        <v>330.6784605759495</v>
+        <v>376.6580097564059</v>
       </c>
       <c r="F25" t="n">
-        <v>182.959569237071</v>
+        <v>224.9816433121709</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895472</v>
+        <v>85.27115051869798</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895472</v>
+        <v>85.27115051869798</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>221.1031986774756</v>
+        <v>217.2244773267156</v>
       </c>
       <c r="K25" t="n">
-        <v>346.3145975066817</v>
+        <v>472.4656641411688</v>
       </c>
       <c r="L25" t="n">
-        <v>498.5966973866275</v>
+        <v>620.8690426703546</v>
       </c>
       <c r="M25" t="n">
-        <v>938.0587583241797</v>
+        <v>1205.050118088669</v>
       </c>
       <c r="N25" t="n">
-        <v>1522.239833742495</v>
+        <v>1789.231193506984</v>
       </c>
       <c r="O25" t="n">
-        <v>2088.086262577685</v>
+        <v>1931.529651765634</v>
       </c>
       <c r="P25" t="n">
-        <v>2217.266617017017</v>
+        <v>2056.831284854205</v>
       </c>
       <c r="Q25" t="n">
-        <v>2315.445186509321</v>
+        <v>2319.323907860081</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2244.889201651336</v>
+        <v>2240.93172654598</v>
       </c>
       <c r="T25" t="n">
-        <v>2031.630140254108</v>
+        <v>2023.715190043395</v>
       </c>
       <c r="U25" t="n">
-        <v>1782.231671002216</v>
+        <v>1770.359245686147</v>
       </c>
       <c r="V25" t="n">
-        <v>1524.264325572012</v>
+        <v>1508.434425150586</v>
       </c>
       <c r="W25" t="n">
-        <v>1281.226083857669</v>
+        <v>1261.438708330886</v>
       </c>
       <c r="X25" t="n">
-        <v>1064.822491890446</v>
+        <v>1178.940569255756</v>
       </c>
       <c r="Y25" t="n">
-        <v>866.3909839039197</v>
+        <v>976.5515861638734</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1364.22345605769</v>
+        <v>1106.599419841792</v>
       </c>
       <c r="C26" t="n">
-        <v>1364.22345605769</v>
+        <v>668.4569470252159</v>
       </c>
       <c r="D26" t="n">
-        <v>957.3018339314997</v>
+        <v>668.4569470252159</v>
       </c>
       <c r="E26" t="n">
-        <v>957.3018339314997</v>
+        <v>234.682202183511</v>
       </c>
       <c r="F26" t="n">
-        <v>558.4225670400726</v>
+        <v>234.682202183511</v>
       </c>
       <c r="G26" t="n">
-        <v>287.939940305679</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895472</v>
@@ -6259,19 +6259,19 @@
         <v>2360.327577447736</v>
       </c>
       <c r="U26" t="n">
-        <v>2130.245048668615</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V26" t="n">
-        <v>2130.245048668615</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W26" t="n">
-        <v>1754.377756779014</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X26" t="n">
-        <v>1364.22345605769</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="Y26" t="n">
-        <v>1364.22345605769</v>
+        <v>1532.8989903267</v>
       </c>
     </row>
     <row r="27">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>703.5605278842979</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C28" t="n">
-        <v>559.9869790668881</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D28" t="n">
-        <v>471.448301625847</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E28" t="n">
-        <v>330.6784605759495</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F28" t="n">
-        <v>182.959569237071</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J28" t="n">
-        <v>140.8216784196393</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K28" t="n">
-        <v>540.7915318199811</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L28" t="n">
-        <v>1111.283513467888</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M28" t="n">
-        <v>1270.299204068065</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N28" t="n">
-        <v>1426.209414133603</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O28" t="n">
-        <v>1572.386593743012</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P28" t="n">
-        <v>2049.073842152685</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q28" t="n">
-        <v>2315.445186509321</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
         <v>2360.327577447736</v>
       </c>
       <c r="S28" t="n">
-        <v>2244.889201651336</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T28" t="n">
-        <v>2031.630140254108</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U28" t="n">
-        <v>1782.231671002216</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="V28" t="n">
-        <v>1524.264325572012</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W28" t="n">
-        <v>1281.226083857669</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X28" t="n">
-        <v>1064.822491890446</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y28" t="n">
-        <v>866.3909839039197</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1127.575238619036</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C29" t="n">
-        <v>695.2811490244135</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D29" t="n">
-        <v>265.2197474208125</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>265.2197474208125</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
         <v>47.20655154895472</v>
@@ -6463,13 +6463,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435801</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228015</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L29" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M29" t="n">
         <v>1131.588690455489</v>
@@ -6502,13 +6502,13 @@
         <v>2360.327577447736</v>
       </c>
       <c r="W29" t="n">
-        <v>1961.320506080724</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X29" t="n">
-        <v>1548.026425881989</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="Y29" t="n">
-        <v>1548.026425881989</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>518.442292065012</v>
+        <v>554.2674472024742</v>
       </c>
       <c r="C31" t="n">
-        <v>351.7289637701914</v>
+        <v>381.705735685699</v>
       </c>
       <c r="D31" t="n">
-        <v>351.7289637701914</v>
+        <v>381.705735685699</v>
       </c>
       <c r="E31" t="n">
-        <v>206.0993487144818</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F31" t="n">
-        <v>206.0993487144818</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G31" t="n">
         <v>47.20655154895472</v>
@@ -6621,52 +6621,52 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
-        <v>198.4239008116653</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K31" t="n">
-        <v>575.7144563461967</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1123.527140128293</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M31" t="n">
-        <v>1259.86353286266</v>
+        <v>910.9641928553085</v>
       </c>
       <c r="N31" t="n">
-        <v>1393.094445062387</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O31" t="n">
-        <v>1640.424487340443</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P31" t="n">
-        <v>2094.432437884306</v>
+        <v>2118.926094568069</v>
       </c>
       <c r="Q31" t="n">
-        <v>2338.124484375131</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
         <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2221.749422173925</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>1985.350581299286</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1712.812332569984</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1431.705207662369</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W31" t="n">
-        <v>1165.527186470615</v>
+        <v>1218.897491273941</v>
       </c>
       <c r="X31" t="n">
-        <v>925.9838150259818</v>
+        <v>973.5057366073531</v>
       </c>
       <c r="Y31" t="n">
-        <v>704.4125275620446</v>
+        <v>746.0860659214613</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>743.373809377712</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C32" t="n">
-        <v>311.0797197830898</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
-        <v>311.0797197830898</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
-        <v>311.0797197830898</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>311.0797197830898</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G32" t="n">
-        <v>311.0797197830898</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895472</v>
@@ -6700,13 +6700,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435801</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228015</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
@@ -6730,22 +6730,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T32" t="n">
-        <v>2154.809496323867</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U32" t="n">
-        <v>1901.587188067335</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V32" t="n">
-        <v>1544.818621223116</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W32" t="n">
-        <v>1145.811549856104</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X32" t="n">
-        <v>1145.811549856104</v>
+        <v>2191.18710732393</v>
       </c>
       <c r="Y32" t="n">
-        <v>743.373809377712</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="33">
@@ -6834,52 +6834,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>657.0204473388226</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C34" t="n">
-        <v>490.307119044002</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="D34" t="n">
-        <v>330.2775094674791</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="E34" t="n">
-        <v>166.3678889401709</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895472</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>198.4239008116653</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>575.7144563461967</v>
+        <v>359.5348022487595</v>
       </c>
       <c r="L34" t="n">
-        <v>1123.527140128293</v>
+        <v>901.6154856350184</v>
       </c>
       <c r="M34" t="n">
-        <v>1383.695693397116</v>
+        <v>1485.796561053333</v>
       </c>
       <c r="N34" t="n">
-        <v>1516.926605596844</v>
+        <v>2055.554276014867</v>
       </c>
       <c r="O34" t="n">
-        <v>1640.424487340443</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P34" t="n">
-        <v>2094.432437884306</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
-        <v>2338.124484375131</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
         <v>2360.327577447736</v>
@@ -6888,22 +6888,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T34" t="n">
-        <v>2123.928736573097</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1851.390487843795</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1570.283362936179</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W34" t="n">
-        <v>1304.105341744425</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X34" t="n">
-        <v>1064.561970299792</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y34" t="n">
-        <v>842.9906828358552</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>870.922261251124</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C35" t="n">
-        <v>870.922261251124</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>440.8608596475231</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>440.8608596475231</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>440.8608596475231</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G35" t="n">
         <v>47.20655154895472</v>
@@ -6967,22 +6967,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447736</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U35" t="n">
-        <v>2107.105269191204</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V35" t="n">
-        <v>2107.105269191204</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W35" t="n">
-        <v>2107.105269191204</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="X35" t="n">
-        <v>1693.811188992469</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="Y35" t="n">
-        <v>1291.373448514077</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>842.9906828358552</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C37" t="n">
-        <v>676.2773545410346</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D37" t="n">
-        <v>516.2477449645118</v>
+        <v>277.6420604698887</v>
       </c>
       <c r="E37" t="n">
-        <v>352.3381244372035</v>
+        <v>107.884056720626</v>
       </c>
       <c r="F37" t="n">
-        <v>181.4794536209143</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G37" t="n">
         <v>47.20655154895472</v>
@@ -7095,28 +7095,28 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>198.4239008116653</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>575.7144563461967</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L37" t="n">
-        <v>1123.527140128293</v>
+        <v>831.5726843696448</v>
       </c>
       <c r="M37" t="n">
-        <v>1383.695693397116</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1516.926605596844</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
-        <v>1640.424487340443</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P37" t="n">
-        <v>2094.432437884306</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
-        <v>2338.124484375131</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
         <v>2360.327577447736</v>
@@ -7125,22 +7125,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T37" t="n">
-        <v>2123.928736573097</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1851.390487843795</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1570.283362936179</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1304.105341744425</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>1064.561970299792</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y37" t="n">
-        <v>842.9906828358552</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C38" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D38" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E38" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895472</v>
@@ -7171,16 +7171,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228014</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
@@ -7204,22 +7204,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916848</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U38" t="n">
-        <v>2068.407113810038</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V38" t="n">
-        <v>1705.790163743865</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W38" t="n">
-        <v>1300.934709154898</v>
+        <v>1592.855172792596</v>
       </c>
       <c r="X38" t="n">
-        <v>881.7922457342091</v>
+        <v>1173.712709371906</v>
       </c>
       <c r="Y38" t="n">
-        <v>473.5061220338625</v>
+        <v>765.4265856715598</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7259,10 +7259,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.0817647851411</v>
+        <v>761.6726680376725</v>
       </c>
       <c r="C40" t="n">
-        <v>443.520053268366</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="D40" t="n">
-        <v>443.520053268366</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E40" t="n">
-        <v>388.6547859746801</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F40" t="n">
-        <v>211.9477319364363</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>202.912315818696</v>
+        <v>359.5348022487595</v>
       </c>
       <c r="L40" t="n">
-        <v>588.0160255186807</v>
+        <v>901.6154856350184</v>
       </c>
       <c r="M40" t="n">
-        <v>718.6204178572102</v>
+        <v>1485.796561053333</v>
       </c>
       <c r="N40" t="n">
-        <v>1288.378132818744</v>
+        <v>2055.554276014867</v>
       </c>
       <c r="O40" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P40" t="n">
         <v>2274.089213540313</v>
@@ -7374,10 +7374,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.32005419002</v>
+        <v>1180.910957442551</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041283</v>
+        <v>953.4912867566595</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1624.755105488881</v>
+        <v>1722.256755431941</v>
       </c>
       <c r="C41" t="n">
-        <v>1186.612632672305</v>
+        <v>1284.114282615364</v>
       </c>
       <c r="D41" t="n">
-        <v>750.7028478467491</v>
+        <v>848.2044977898086</v>
       </c>
       <c r="E41" t="n">
-        <v>316.9281030050443</v>
+        <v>414.4297529481037</v>
       </c>
       <c r="F41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001348</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435801</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
@@ -7441,22 +7441,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T41" t="n">
-        <v>2292.111920667714</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U41" t="n">
-        <v>2033.041229189228</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V41" t="n">
-        <v>2033.041229189228</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W41" t="n">
-        <v>2033.041229189228</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="X41" t="n">
-        <v>2033.041229189228</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="Y41" t="n">
-        <v>1624.755105488881</v>
+        <v>2148.556325916848</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
         <v>47.20655154895472</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.0817647851411</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C43" t="n">
-        <v>443.520053268366</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D43" t="n">
-        <v>277.6420604698887</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E43" t="n">
-        <v>107.884056720626</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895472</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895472</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M43" t="n">
-        <v>1412.355695376305</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180194</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270316</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856608</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.32005419002</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041283</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1346.991198798029</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>908.8487259814518</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
         <v>908.8487259814518</v>
@@ -7636,34 +7636,34 @@
         <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
         <v>2043.069798152528</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X44" t="n">
-        <v>2181.576892983283</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="Y44" t="n">
-        <v>1773.290769282936</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
         <v>81.42328772043084</v>
@@ -7782,58 +7782,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.0817647851416</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C46" t="n">
-        <v>443.5200532683665</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D46" t="n">
-        <v>277.6420604698892</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E46" t="n">
-        <v>107.8840567206265</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.33113894078</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M46" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N46" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T46" t="n">
         <v>2118.080353351143</v>
@@ -7848,10 +7848,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
   </sheetData>
@@ -8850,22 +8850,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>141.4680432173443</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>433.3778850190884</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>147.867522034104</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>197.4340676691404</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>436.5147340439771</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>322.033714419236</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9330,13 +9330,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>393.4508738107706</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>376.6028824918831</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>322.033714419236</v>
+        <v>305.1857231003487</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9798,25 +9798,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>135.2611205414213</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>283.2791619569443</v>
+        <v>433.3778850190882</v>
       </c>
       <c r="N25" t="n">
-        <v>432.596833689674</v>
+        <v>436.5147340439771</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6.361782734195572</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10047,13 +10047,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639881</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>125.0829904388447</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>70.75030430845823</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>125.0829904388447</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>125.0829904388447</v>
+        <v>105.0002374943208</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>70.75030430845823</v>
       </c>
       <c r="L40" t="n">
-        <v>263.8716243249361</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>177.1920849464593</v>
+        <v>458.1582657371566</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>192.4544649334014</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>397.2561940619901</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>314.4055089813025</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>398.8083745768157</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>370.727283689249</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>242.24395522346</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>15.28132536928237</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>184.8731582975103</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>231.6996038456326</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>30.82535190586418</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>379.4228817452745</v>
       </c>
     </row>
     <row r="12">
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>118.2018923927392</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.8692533779063</v>
+        <v>124.5226456211445</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>399.128193097422</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>410.8526664057742</v>
+        <v>408.9806673703423</v>
       </c>
       <c r="D14" t="n">
-        <v>408.6423052946632</v>
+        <v>406.7703062592313</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>252.6172155489399</v>
       </c>
       <c r="G14" t="n">
-        <v>154.6005134167425</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>186.7451573329422</v>
+        <v>184.8731582975103</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>231.6996038456326</v>
       </c>
       <c r="V14" t="n">
-        <v>336.0823988828751</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>376.0265193250084</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>390.1706580684138</v>
       </c>
       <c r="Y14" t="n">
-        <v>381.2948807807064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>146.0557136835387</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>96.66882433034431</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.062441769873033</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>108.1122383318406</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.55595201547774</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>120.0738914281712</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>397.2561940619901</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>408.9806673703423</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>406.7703062592313</v>
       </c>
       <c r="E17" t="n">
-        <v>352.6154570121608</v>
+        <v>404.6566166752191</v>
       </c>
       <c r="F17" t="n">
-        <v>400.6803736122476</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>372.5992827246809</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.15332440471431</v>
+        <v>15.28132536928237</v>
       </c>
       <c r="T17" t="n">
-        <v>186.7451573329422</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>233.5716028810645</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>336.0823988828751</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>377.8985183604403</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>238.7701372337391</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>379.4228817452745</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>92.5649352340903</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.1596027797927</v>
       </c>
       <c r="G19" t="n">
-        <v>3.062441769873033</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>108.1122383318406</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>39.55595201547774</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>120.0738914281712</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>399.128193097422</v>
+        <v>397.2561940619901</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>408.9806673703423</v>
       </c>
       <c r="D20" t="n">
-        <v>187.0009852481797</v>
+        <v>406.7703062592313</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>404.6566166752191</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>398.8083745768157</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.15332440471431</v>
+        <v>15.28132536928238</v>
       </c>
       <c r="T20" t="n">
-        <v>186.7451573329422</v>
+        <v>184.8731582975103</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>336.0823988828751</v>
+        <v>34.51148610468766</v>
       </c>
       <c r="W20" t="n">
-        <v>377.8985183604403</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>392.0426571038457</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>381.2948807807064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>98.80034573742859</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>106.2402392964086</v>
       </c>
       <c r="I22" t="n">
-        <v>24.40676485842737</v>
+        <v>37.68395298004582</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>246.3977586869347</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>330.1042990121867</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>398.8083745768157</v>
       </c>
       <c r="G23" t="n">
-        <v>312.0282797363931</v>
+        <v>370.727283689249</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>242.2439552234601</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.36342501497936</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>180.9552579432073</v>
+        <v>184.8731582975103</v>
       </c>
       <c r="U23" t="n">
-        <v>227.7817034913296</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>330.2924994931401</v>
+        <v>334.2103998474431</v>
       </c>
       <c r="W23" t="n">
-        <v>372.1086189707054</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>386.2527577141108</v>
+        <v>390.1706580684138</v>
       </c>
       <c r="Y23" t="n">
-        <v>375.5049813909715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>47.86764113149022</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3223389421056</v>
+        <v>106.2402392964086</v>
       </c>
       <c r="I25" t="n">
-        <v>33.7660526257428</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>136.4842987174744</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>393.3382937076871</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>405.0627670160393</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>400.7387163209161</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>99.0315828678963</v>
+        <v>209.9067702791068</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>11.36342501497936</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>180.9552579432073</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>330.2924994931401</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>375.5049813909715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>47.86764113149022</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3223389421056</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>33.7660526257428</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>99.00273129754089</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>423.6470980035528</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>201.9657919920102</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>389.7177650175826</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>261.2344365517937</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>34.27180669761604</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>203.8636396258439</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>250.6900851739662</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>353.2008811757768</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>398.4133630736081</v>
+        <v>254.5875093574913</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>158.4293134807576</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>18.0972054168827</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>169.1500841081264</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>125.2307206247423</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>56.67443430837947</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>81.78609870396718</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>416.2466753903237</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>425.7607875875649</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>423.6470980035528</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>417.7988559051494</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>389.7177650175826</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.27180669761604</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0.4007393132133927</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>409.1611393967474</v>
+        <v>247.5019733639148</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>8.147719077365366</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>51.18036009082238</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>157.3038691938718</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>125.2307206247423</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>56.67443430837947</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>137.1923737210729</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>427.971148698676</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>423.6470980035528</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>417.7988559051494</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>261.2344365517937</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.27180669761604</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>203.8636396258439</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>353.2008811757768</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>395.0170006533421</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>42.20447359301124</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>184.1105331420623</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="G37" t="n">
-        <v>24.37369614263187</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>125.2307206247423</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>56.67443430837947</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>137.1923737210729</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>106.5064054059973</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25405,7 +25405,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25444,10 +25444,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>177.1322645779593</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>113.743809091021</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>144.1349942200059</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>60.03778590972684</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>142.120038803357</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>114.8692533779068</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>276.3631494550537</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>237.9878611666734</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>247.5019733639147</v>
       </c>
     </row>
     <row r="45">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>114.8692533779063</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>280932.5250745006</v>
+        <v>307863.3472312832</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>305828.8961195564</v>
+        <v>307863.3472312832</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>305828.8961195564</v>
+        <v>307863.3472312832</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>305828.8961195564</v>
+        <v>307863.3472312833</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>312121.2429783325</v>
+        <v>307863.3472312832</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>312121.2429783325</v>
+        <v>280932.5250745005</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>287224.8719332767</v>
+        <v>280932.5250745005</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>287224.8719332766</v>
+        <v>280932.5250745005</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>287224.8719332766</v>
+        <v>280932.5250745005</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>280932.5250745006</v>
+        <v>280932.5250745005</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484130.7854230572</v>
+        <v>484130.7854230571</v>
       </c>
       <c r="C2" t="n">
         <v>484130.7854230572</v>
@@ -26322,40 +26322,40 @@
         <v>484130.7854230571</v>
       </c>
       <c r="E2" t="n">
-        <v>291000.5069065121</v>
+        <v>324796.4857374283</v>
       </c>
       <c r="F2" t="n">
-        <v>322243.4160129254</v>
+        <v>324796.4857374282</v>
       </c>
       <c r="G2" t="n">
-        <v>322243.4160129254</v>
+        <v>324796.4857374282</v>
       </c>
       <c r="H2" t="n">
-        <v>322243.4160129254</v>
+        <v>324796.4857374282</v>
       </c>
       <c r="I2" t="n">
-        <v>330139.7965986339</v>
+        <v>324796.4857374283</v>
       </c>
       <c r="J2" t="n">
-        <v>330139.7965986339</v>
+        <v>291000.506906512</v>
       </c>
       <c r="K2" t="n">
-        <v>298896.8874922205</v>
+        <v>291000.506906512</v>
       </c>
       <c r="L2" t="n">
-        <v>298896.8874922204</v>
+        <v>291000.506906512</v>
       </c>
       <c r="M2" t="n">
-        <v>298896.8874922206</v>
+        <v>291000.506906512</v>
       </c>
       <c r="N2" t="n">
-        <v>291000.506906512</v>
+        <v>291000.5069065119</v>
       </c>
       <c r="O2" t="n">
         <v>291000.506906512</v>
       </c>
       <c r="P2" t="n">
-        <v>291000.5069065121</v>
+        <v>291000.506906512</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906757</v>
+        <v>570959.5055651306</v>
       </c>
       <c r="F3" t="n">
-        <v>18326.70534610935</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4631.919511787964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>21859.30180364563</v>
+        <v>42556.48697607924</v>
       </c>
       <c r="F4" t="n">
-        <v>40992.94720969054</v>
+        <v>42556.48697607924</v>
       </c>
       <c r="G4" t="n">
-        <v>40992.94720969054</v>
+        <v>42556.48697607924</v>
       </c>
       <c r="H4" t="n">
-        <v>40992.94720969054</v>
+        <v>42556.48697607925</v>
       </c>
       <c r="I4" t="n">
-        <v>45828.81398520489</v>
+        <v>42556.48697607924</v>
       </c>
       <c r="J4" t="n">
-        <v>45828.81398520491</v>
+        <v>21859.30180364562</v>
       </c>
       <c r="K4" t="n">
-        <v>26695.16857915998</v>
+        <v>21859.30180364561</v>
       </c>
       <c r="L4" t="n">
-        <v>26695.16857915999</v>
+        <v>21859.30180364561</v>
       </c>
       <c r="M4" t="n">
-        <v>26695.16857915999</v>
+        <v>21859.30180364562</v>
       </c>
       <c r="N4" t="n">
-        <v>21859.30180364562</v>
+        <v>21859.30180364561</v>
       </c>
       <c r="O4" t="n">
-        <v>21859.30180364562</v>
+        <v>21859.30180364561</v>
       </c>
       <c r="P4" t="n">
-        <v>21859.30180364563</v>
+        <v>21859.30180364561</v>
       </c>
     </row>
     <row r="5">
@@ -26478,31 +26478,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>48134.34303622512</v>
+      </c>
+      <c r="F5" t="n">
+        <v>48134.34303622512</v>
+      </c>
+      <c r="G5" t="n">
+        <v>48134.34303622512</v>
+      </c>
+      <c r="H5" t="n">
+        <v>48134.34303622512</v>
+      </c>
+      <c r="I5" t="n">
+        <v>48134.34303622512</v>
+      </c>
+      <c r="J5" t="n">
         <v>46051.08120963781</v>
       </c>
-      <c r="F5" t="n">
-        <v>47976.96594931539</v>
-      </c>
-      <c r="G5" t="n">
-        <v>47976.96594931539</v>
-      </c>
-      <c r="H5" t="n">
-        <v>47976.96594931539</v>
-      </c>
-      <c r="I5" t="n">
-        <v>48463.71700111102</v>
-      </c>
-      <c r="J5" t="n">
-        <v>48463.71700111102</v>
-      </c>
       <c r="K5" t="n">
-        <v>46537.83226143343</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46537.83226143343</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46537.83226143343</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151772.4691112244</v>
+        <v>151740.5623937226</v>
       </c>
       <c r="C6" t="n">
-        <v>151772.4691112243</v>
+        <v>151740.5623937228</v>
       </c>
       <c r="D6" t="n">
-        <v>151772.4691112243</v>
+        <v>151740.5623937226</v>
       </c>
       <c r="E6" t="n">
-        <v>-328045.077097447</v>
+        <v>-337316.3897999018</v>
       </c>
       <c r="F6" t="n">
-        <v>214946.7975078102</v>
+        <v>233643.1157652288</v>
       </c>
       <c r="G6" t="n">
-        <v>233273.5028539195</v>
+        <v>233643.1157652288</v>
       </c>
       <c r="H6" t="n">
-        <v>233273.5028539195</v>
+        <v>233643.1157652288</v>
       </c>
       <c r="I6" t="n">
-        <v>231215.34610053</v>
+        <v>233643.1157652288</v>
       </c>
       <c r="J6" t="n">
-        <v>235847.265612318</v>
+        <v>222536.2434500066</v>
       </c>
       <c r="K6" t="n">
-        <v>225663.8866516271</v>
+        <v>222536.2434500066</v>
       </c>
       <c r="L6" t="n">
-        <v>225663.886651627</v>
+        <v>222536.2434500066</v>
       </c>
       <c r="M6" t="n">
-        <v>78613.1182490557</v>
+        <v>75485.47504743516</v>
       </c>
       <c r="N6" t="n">
-        <v>223090.1238932286</v>
+        <v>222536.2434500065</v>
       </c>
       <c r="O6" t="n">
-        <v>223090.1238932286</v>
+        <v>222536.2434500066</v>
       </c>
       <c r="P6" t="n">
-        <v>223090.1238932287</v>
+        <v>222536.2434500066</v>
       </c>
     </row>
   </sheetData>
@@ -26694,31 +26694,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="F2" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="G2" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="H2" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="I2" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="J2" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932211</v>
@@ -26810,7 +26810,7 @@
         <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.081894361934</v>
@@ -26831,7 +26831,7 @@
         <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="F2" t="n">
-        <v>22.90838168263668</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="K2" t="n">
-        <v>22.90838168263668</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>24.78038071806862</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="C14" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="D14" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="E14" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="F14" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="G14" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="H14" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="T14" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="U14" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="V14" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="W14" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="X14" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="C16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="D16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="E16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="F16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="G16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="H16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="I16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="J16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="K16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="L16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="M16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="N16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="O16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="P16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="R16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="S16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="T16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="U16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="V16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="W16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="X16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="C17" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="D17" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="E17" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="F17" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="G17" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="H17" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="T17" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="U17" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="V17" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="W17" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="X17" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="Y17" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="C19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="D19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="E19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="F19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="G19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="H19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="I19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="J19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="K19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="L19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="M19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="N19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="O19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="P19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="R19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="S19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="T19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="U19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="V19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="W19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="X19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="C20" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="D20" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="E20" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="F20" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="G20" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="H20" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="T20" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="U20" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="V20" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="W20" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="X20" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="Y20" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="C22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="D22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="E22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="F22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="G22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="H22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="I22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="J22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="K22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="L22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="M22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="N22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="O22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="P22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="R22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="S22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="T22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="U22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="V22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="W22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="X22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.90838168263668</v>
+        <v>24.78038071806862</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="C23" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="D23" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="E23" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="F23" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="G23" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="H23" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="T23" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="U23" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="V23" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="W23" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="X23" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="Y23" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="C25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="D25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="E25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="F25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="G25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="H25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="I25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="J25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="K25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="L25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="M25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="N25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="O25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="P25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="R25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="S25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="T25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="U25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="V25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="W25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="X25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.69828107237164</v>
+        <v>24.78038071806862</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>28.69828107237164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.789899389734956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
@@ -32493,19 +32493,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
@@ -32575,7 +32575,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32584,7 +32584,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
         <v>97.77787936116989</v>
@@ -32642,16 +32642,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33037,7 +33037,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
@@ -33760,7 +33760,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
@@ -33970,7 +33970,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916787</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562338</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
@@ -34128,7 +34128,7 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699007</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>171.7352785633948</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>122.5582600792385</v>
       </c>
       <c r="L13" t="n">
-        <v>266.5900650540088</v>
+        <v>149.9024025547332</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>301.4346823520611</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>567.6441489741728</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>126.567306150072</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>265.144063642299</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>41.41784806833877</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
         <v>159.2391669125709</v>
@@ -35652,10 +35652,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35664,7 +35664,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35737,7 +35737,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>169.8632795279629</v>
+        <v>84.28105112431419</v>
       </c>
       <c r="K16" t="n">
-        <v>398.2200535399031</v>
+        <v>400.0920525753351</v>
       </c>
       <c r="L16" t="n">
-        <v>570.4646275273427</v>
+        <v>149.9024025547333</v>
       </c>
       <c r="M16" t="n">
-        <v>154.8320103074138</v>
+        <v>354.1380770119863</v>
       </c>
       <c r="N16" t="n">
-        <v>151.6951612825251</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O16" t="n">
-        <v>141.8638173874465</v>
+        <v>143.7358164228785</v>
       </c>
       <c r="P16" t="n">
-        <v>446.7290215338762</v>
+        <v>477.584370766579</v>
       </c>
       <c r="Q16" t="n">
-        <v>263.2720646068669</v>
+        <v>95.2523718601451</v>
       </c>
       <c r="R16" t="n">
-        <v>39.54584903290683</v>
+        <v>41.41784806833877</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35901,7 +35901,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -35983,7 +35983,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>169.8632795279629</v>
+        <v>171.7352785633948</v>
       </c>
       <c r="K19" t="n">
-        <v>398.2200535399031</v>
+        <v>400.0920525753351</v>
       </c>
       <c r="L19" t="n">
-        <v>148.0304035193012</v>
+        <v>149.9024025547332</v>
       </c>
       <c r="M19" t="n">
-        <v>548.2828841181846</v>
+        <v>156.7040093428459</v>
       </c>
       <c r="N19" t="n">
-        <v>151.6951612825251</v>
+        <v>153.5671603179571</v>
       </c>
       <c r="O19" t="n">
-        <v>141.8638173874465</v>
+        <v>520.3386989147616</v>
       </c>
       <c r="P19" t="n">
-        <v>475.712371731147</v>
+        <v>477.584370766579</v>
       </c>
       <c r="Q19" t="n">
-        <v>263.2720646068669</v>
+        <v>265.144063642299</v>
       </c>
       <c r="R19" t="n">
-        <v>39.54584903290683</v>
+        <v>41.41784806833877</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766673</v>
@@ -36135,7 +36135,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184533</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916793</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>169.8632795279629</v>
+        <v>171.7352785633948</v>
       </c>
       <c r="K22" t="n">
-        <v>398.2200535399031</v>
+        <v>400.0920525753351</v>
       </c>
       <c r="L22" t="n">
-        <v>570.4646275273427</v>
+        <v>572.3366265627745</v>
       </c>
       <c r="M22" t="n">
-        <v>154.8320103074138</v>
+        <v>156.7040093428459</v>
       </c>
       <c r="N22" t="n">
-        <v>151.6951612825251</v>
+        <v>153.5671603179571</v>
       </c>
       <c r="O22" t="n">
-        <v>141.8638173874465</v>
+        <v>143.7358164228785</v>
       </c>
       <c r="P22" t="n">
-        <v>446.7290215338762</v>
+        <v>431.7530292504207</v>
       </c>
       <c r="Q22" t="n">
-        <v>263.2720646068669</v>
+        <v>265.144063642299</v>
       </c>
       <c r="R22" t="n">
-        <v>39.54584903290683</v>
+        <v>41.41784806833876</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.076641276667</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36445,7 +36445,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>175.6531789176979</v>
+        <v>171.7352785633948</v>
       </c>
       <c r="K25" t="n">
-        <v>126.4761604335415</v>
+        <v>257.8193806206598</v>
       </c>
       <c r="L25" t="n">
-        <v>153.8203029090362</v>
+        <v>149.9024025547332</v>
       </c>
       <c r="M25" t="n">
-        <v>443.9010716540932</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N25" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O25" t="n">
-        <v>571.562049328476</v>
+        <v>143.7358164228785</v>
       </c>
       <c r="P25" t="n">
-        <v>130.4852065043751</v>
+        <v>126.567306150072</v>
       </c>
       <c r="Q25" t="n">
-        <v>99.17027221444823</v>
+        <v>265.144063642299</v>
       </c>
       <c r="R25" t="n">
-        <v>45.33574842264179</v>
+        <v>41.41784806833877</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>94.56073421281276</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>404.0099529296381</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>576.2545269170777</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
-        <v>160.6219096971488</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>157.48506067226</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>147.6537167771814</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>481.5022711208817</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q28" t="n">
-        <v>269.0619639966017</v>
+        <v>81.10166275847541</v>
       </c>
       <c r="R28" t="n">
-        <v>45.33574842264179</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125705</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062837</v>
@@ -36852,7 +36852,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
         <v>117.855135640546</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>152.7447972350612</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>381.1015712470014</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
-        <v>553.346145234441</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>137.7135280145121</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N31" t="n">
-        <v>134.5766789896234</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
-        <v>249.8283255333895</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>458.5938894382452</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>246.1535823139652</v>
+        <v>227.2024143463627</v>
       </c>
       <c r="R31" t="n">
-        <v>22.4273667400051</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125705</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062837</v>
@@ -37092,7 +37092,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>152.7447972350612</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>381.1015712470014</v>
+        <v>168.5281836696281</v>
       </c>
       <c r="L34" t="n">
-        <v>553.346145234441</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>262.7965184533568</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N34" t="n">
-        <v>134.5766789896234</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>124.7453350945448</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P34" t="n">
-        <v>458.5938894382452</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>246.1535823139652</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
-        <v>22.4273667400051</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>152.7447972350612</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>381.1015712470014</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L37" t="n">
-        <v>553.346145234441</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>262.7965184533568</v>
+        <v>236.923866119098</v>
       </c>
       <c r="N37" t="n">
-        <v>134.5766789896234</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O37" t="n">
-        <v>124.7453350945448</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P37" t="n">
-        <v>458.5938894382452</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>246.1535823139652</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>22.4273667400051</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062832</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916787</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37633,7 +37633,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>168.5281836696281</v>
       </c>
       <c r="L40" t="n">
-        <v>388.9936461616007</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
         <v>70.4719911420766</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785867</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -37794,7 +37794,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>309.1157135712365</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38019,22 +38019,22 @@
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.076641276667</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>324.3780935581786</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O46" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
